--- a/files/category.xlsx
+++ b/files/category.xlsx
@@ -8,68 +8,63 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hobiniainamiradoramahatsangiarison/Applications/store/back/catalog-service/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE926ADE-5EA1-6C47-95A4-EF1138829CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323EAD75-4099-FF4C-9164-4B704678D7CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="15120" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34060" yWindow="3840" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>ACCESS</t>
-  </si>
-  <si>
-    <t>Accessoire</t>
-  </si>
-  <si>
-    <t>APC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>[CODE] code</t>
+  </si>
+  <si>
+    <t>[LABEL] label</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smartphone</t>
   </si>
   <si>
     <t>JV</t>
   </si>
   <si>
-    <t>OPC</t>
-  </si>
-  <si>
-    <t>Ordinateur &amp; PC</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>TBT</t>
-  </si>
-  <si>
-    <t>Tablette</t>
-  </si>
-  <si>
-    <t>Appareil photo &amp; caméra</t>
-  </si>
-  <si>
-    <t>Jeux vidéo</t>
+    <t xml:space="preserve"> jeux vidéo</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tablette</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> accessoire</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Appareil photo </t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Cé</t>
+  </si>
+  <si>
+    <t>L3</t>
   </si>
 </sst>
 </file>
@@ -910,15 +905,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -942,15 +938,12 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -963,18 +956,28 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
